--- a/LMS.Vocabulary/Persistence/Data/Vocabulary.xlsx
+++ b/LMS.Vocabulary/Persistence/Data/Vocabulary.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNET\LMS\LMS.Vocabulary\Persistence\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6172E5-AA3B-4A7D-85FE-30AAD6E44079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D090D17-F2D1-444D-82B2-4CA7E3BC2061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actions" sheetId="1" r:id="rId1"/>
     <sheet name="sport" sheetId="17" r:id="rId2"/>
-    <sheet name="restaurance" sheetId="2" r:id="rId3"/>
-    <sheet name="airport" sheetId="3" r:id="rId4"/>
-    <sheet name="business" sheetId="4" r:id="rId5"/>
-    <sheet name="bank" sheetId="6" r:id="rId6"/>
-    <sheet name="architecture" sheetId="18" r:id="rId7"/>
-    <sheet name="travel" sheetId="7" r:id="rId8"/>
-    <sheet name="office" sheetId="9" r:id="rId9"/>
-    <sheet name="hotel" sheetId="11" r:id="rId10"/>
-    <sheet name="health" sheetId="12" r:id="rId11"/>
-    <sheet name="tech" sheetId="13" r:id="rId12"/>
-    <sheet name="social" sheetId="14" r:id="rId13"/>
-    <sheet name="traffic" sheetId="15" r:id="rId14"/>
-    <sheet name="natural" sheetId="16" r:id="rId15"/>
+    <sheet name="airport" sheetId="3" r:id="rId3"/>
+    <sheet name="business" sheetId="4" r:id="rId4"/>
+    <sheet name="bank" sheetId="6" r:id="rId5"/>
+    <sheet name="travel" sheetId="7" r:id="rId6"/>
+    <sheet name="office" sheetId="9" r:id="rId7"/>
+    <sheet name="health" sheetId="12" r:id="rId8"/>
+    <sheet name="tech" sheetId="13" r:id="rId9"/>
+    <sheet name="social" sheetId="14" r:id="rId10"/>
+    <sheet name="traffic" sheetId="15" r:id="rId11"/>
+    <sheet name="natural" sheetId="16" r:id="rId12"/>
+    <sheet name="food" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,10 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="331">
-  <si>
-    <t>Hành động cơ thể</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="329">
   <si>
     <t>Từ loại</t>
   </si>
@@ -76,12 +71,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>với</t>
-  </si>
-  <si>
-    <t>lấy tay với tới cái gì đó trên cao</t>
-  </si>
-  <si>
     <t>lie</t>
   </si>
   <si>
@@ -259,30 +248,18 @@
     <t>pave</t>
   </si>
   <si>
-    <t>lát</t>
-  </si>
-  <si>
-    <t>lát gạch, lát đá</t>
-  </si>
-  <si>
     <t>pave the road</t>
   </si>
   <si>
     <t>load</t>
   </si>
   <si>
-    <t>chở</t>
-  </si>
-  <si>
     <t>row a boat</t>
   </si>
   <si>
     <t>chèo thuyền</t>
   </si>
   <si>
-    <t>tưới</t>
-  </si>
-  <si>
     <t>spray water</t>
   </si>
   <si>
@@ -433,9 +410,6 @@
     <t>trao đổi</t>
   </si>
   <si>
-    <t>đào lên, xới</t>
-  </si>
-  <si>
     <t>directing</t>
   </si>
   <si>
@@ -976,9 +950,6 @@
     <t>leaning on a railing</t>
   </si>
   <si>
-    <t>dựa vào tường</t>
-  </si>
-  <si>
     <t>set on</t>
   </si>
   <si>
@@ -1040,13 +1011,34 @@
   </si>
   <si>
     <t>Difficult</t>
+  </si>
+  <si>
+    <t>dựa vào hàng rào</t>
+  </si>
+  <si>
+    <t>Hành động của cơ thể</t>
+  </si>
+  <si>
+    <t>với tay tới</t>
+  </si>
+  <si>
+    <t>lát gạch/đường</t>
+  </si>
+  <si>
+    <t>chở hàng</t>
+  </si>
+  <si>
+    <t>đào xới</t>
+  </si>
+  <si>
+    <t>tưới nước</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1057,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1088,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1111,13 +1111,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,11 +1135,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1416,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C116" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,46 +1441,49 @@
     <col min="5" max="5" width="42.44140625" customWidth="1"/>
     <col min="6" max="6" width="41.88671875" customWidth="1"/>
     <col min="7" max="7" width="38.21875" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="5"/>
+    <col min="8" max="9" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>328</v>
+      <c r="A2" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>329</v>
+      <c r="H2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1476,21 +1491,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+        <v>324</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1500,21 +1512,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1524,21 +1536,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1548,18 +1560,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1569,15 +1584,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1587,18 +1605,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+        <v>55</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1608,15 +1626,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1626,18 +1647,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+        <v>59</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1647,18 +1668,18 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1668,18 +1689,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+        <v>63</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1689,18 +1710,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
+        <v>65</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1710,24 +1731,21 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
+        <v>67</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1737,18 +1755,18 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
+        <v>326</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1758,18 +1776,18 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
+        <v>327</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1779,15 +1797,18 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+        <v>70</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1797,18 +1818,18 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
+        <v>328</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1818,15 +1839,18 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
+        <v>72</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1836,21 +1860,21 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
+        <v>76</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1860,18 +1884,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+        <v>135</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1881,15 +1908,18 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>260</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
+        <v>259</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1899,18 +1929,21 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1920,18 +1953,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1941,15 +1977,18 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
+        <v>86</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1959,18 +1998,21 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1980,15 +2022,18 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
+        <v>91</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1998,15 +2043,18 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
+        <v>93</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2016,15 +2064,18 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
+        <v>95</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2034,15 +2085,18 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
+        <v>97</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2052,15 +2106,18 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
+        <v>99</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2070,15 +2127,18 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
+        <v>101</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2088,15 +2148,18 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
+        <v>103</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2106,15 +2169,18 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
+        <v>105</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2124,15 +2190,18 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
+        <v>107</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2142,15 +2211,18 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
+        <v>109</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2160,15 +2232,18 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
+        <v>74</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2178,15 +2253,18 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
+        <v>112</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2196,15 +2274,18 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
+        <v>114</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2214,15 +2295,18 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
+        <v>116</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2232,15 +2316,18 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="5">
+        <v>118</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2250,15 +2337,18 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
+        <v>120</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2268,15 +2358,18 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
+        <v>122</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2286,15 +2379,18 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
+        <v>124</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2304,15 +2400,18 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
+        <v>126</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2322,15 +2421,18 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
+        <v>128</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2340,15 +2442,18 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
+        <v>130</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2358,15 +2463,18 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
+        <v>132</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2376,15 +2484,18 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
+        <v>134</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2394,15 +2505,18 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
+        <v>137</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2412,15 +2526,18 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5">
+        <v>139</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2430,15 +2547,18 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
+        <v>141</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2448,15 +2568,18 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
+        <v>143</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2466,15 +2589,18 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
+        <v>145</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2484,15 +2610,18 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5">
+        <v>147</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2502,15 +2631,18 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
+        <v>112</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2520,15 +2652,18 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
+        <v>150</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2538,15 +2673,18 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="5">
+        <v>152</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2556,15 +2694,18 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
-      </c>
-      <c r="I59" s="5">
+        <v>154</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2574,15 +2715,18 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="5">
+        <v>156</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2592,15 +2736,18 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
-      </c>
-      <c r="I61" s="5">
+        <v>158</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2610,15 +2757,18 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5">
+        <v>160</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2628,15 +2778,18 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0</v>
-      </c>
-      <c r="I63" s="5">
+        <v>162</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2646,15 +2799,18 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0</v>
-      </c>
-      <c r="I64" s="5">
+        <v>164</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2664,15 +2820,18 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
+        <v>166</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2682,15 +2841,18 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0</v>
-      </c>
-      <c r="I66" s="5">
+        <v>168</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2700,15 +2862,18 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
-      </c>
-      <c r="H67" s="5">
-        <v>0</v>
-      </c>
-      <c r="I67" s="5">
+        <v>170</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2718,15 +2883,18 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5">
+        <v>172</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2736,15 +2904,18 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
-      <c r="I69" s="5">
+        <v>174</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2754,15 +2925,18 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0</v>
-      </c>
-      <c r="I70" s="5">
+        <v>176</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2772,15 +2946,18 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0</v>
-      </c>
-      <c r="I71" s="5">
+        <v>178</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2790,15 +2967,18 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0</v>
-      </c>
-      <c r="I72" s="5">
+        <v>180</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2808,15 +2988,18 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0</v>
-      </c>
-      <c r="I73" s="5">
+        <v>182</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2826,15 +3009,18 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0</v>
-      </c>
-      <c r="I74" s="5">
+        <v>184</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2844,15 +3030,18 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5">
+        <v>186</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2862,15 +3051,18 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
-      </c>
-      <c r="H76" s="5">
-        <v>0</v>
-      </c>
-      <c r="I76" s="5">
+        <v>188</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2880,15 +3072,18 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
-      </c>
-      <c r="H77" s="5">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5">
+        <v>190</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2898,15 +3093,18 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0</v>
-      </c>
-      <c r="I78" s="5">
+        <v>192</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2916,18 +3114,21 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H79" s="5">
-        <v>0</v>
-      </c>
-      <c r="I79" s="5">
+        <v>195</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2937,15 +3138,18 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
-      </c>
-      <c r="H80" s="5">
-        <v>0</v>
-      </c>
-      <c r="I80" s="5">
+        <v>197</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2955,15 +3159,18 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5">
+        <v>199</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2973,15 +3180,18 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0</v>
-      </c>
-      <c r="I82" s="5">
+        <v>201</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2991,15 +3201,18 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
-      </c>
-      <c r="H83" s="5">
-        <v>0</v>
-      </c>
-      <c r="I83" s="5">
+        <v>203</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3009,15 +3222,18 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>204</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
-      </c>
-      <c r="H84" s="5">
-        <v>0</v>
-      </c>
-      <c r="I84" s="5">
+        <v>170</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3027,15 +3243,18 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0</v>
-      </c>
-      <c r="I85" s="5">
+        <v>206</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3045,15 +3264,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
-      </c>
-      <c r="H86" s="5">
-        <v>0</v>
-      </c>
-      <c r="I86" s="5">
+        <v>74</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3063,15 +3285,18 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>208</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
-      </c>
-      <c r="H87" s="5">
-        <v>0</v>
-      </c>
-      <c r="I87" s="5">
+        <v>209</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3081,15 +3306,18 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
-      </c>
-      <c r="H88" s="5">
-        <v>0</v>
-      </c>
-      <c r="I88" s="5">
+        <v>211</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3099,15 +3327,18 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
-      </c>
-      <c r="H89" s="5">
-        <v>0</v>
-      </c>
-      <c r="I89" s="5">
+        <v>83</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3117,15 +3348,18 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>222</v>
-      </c>
-      <c r="H90" s="5">
-        <v>0</v>
-      </c>
-      <c r="I90" s="5">
+        <v>214</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3135,15 +3369,18 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>224</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0</v>
-      </c>
-      <c r="I91" s="5">
+        <v>216</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3153,15 +3390,18 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>217</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
-      </c>
-      <c r="H92" s="5">
-        <v>0</v>
-      </c>
-      <c r="I92" s="5">
+        <v>218</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3171,15 +3411,18 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>219</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5">
+        <v>220</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3189,15 +3432,18 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>230</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0</v>
-      </c>
-      <c r="I94" s="5">
+        <v>222</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3207,15 +3453,18 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>223</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
-      </c>
-      <c r="H95" s="5">
-        <v>0</v>
-      </c>
-      <c r="I95" s="5">
+        <v>53</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3225,15 +3474,18 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>232</v>
-      </c>
-      <c r="H96" s="5">
-        <v>0</v>
-      </c>
-      <c r="I96" s="5">
+        <v>224</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3243,15 +3495,18 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
-      </c>
-      <c r="H97" s="5">
-        <v>0</v>
-      </c>
-      <c r="I97" s="5">
+        <v>227</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3261,15 +3516,18 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>228</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0</v>
-      </c>
-      <c r="I98" s="5">
+        <v>229</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3279,15 +3537,18 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>230</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
-      </c>
-      <c r="H99" s="5">
-        <v>0</v>
-      </c>
-      <c r="I99" s="5">
+        <v>231</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3297,15 +3558,18 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>232</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>241</v>
-      </c>
-      <c r="H100" s="5">
-        <v>0</v>
-      </c>
-      <c r="I100" s="5">
+        <v>233</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3315,15 +3579,18 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>234</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>243</v>
-      </c>
-      <c r="H101" s="5">
-        <v>0</v>
-      </c>
-      <c r="I101" s="5">
+        <v>235</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3333,15 +3600,18 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>245</v>
-      </c>
-      <c r="H102" s="5">
-        <v>0</v>
-      </c>
-      <c r="I102" s="5">
+        <v>237</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3351,15 +3621,18 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
-      </c>
-      <c r="H103" s="5">
-        <v>0</v>
-      </c>
-      <c r="I103" s="5">
+        <v>239</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3369,15 +3642,18 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>249</v>
-      </c>
-      <c r="H104" s="5">
-        <v>0</v>
-      </c>
-      <c r="I104" s="5">
+        <v>241</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3387,15 +3663,18 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>251</v>
-      </c>
-      <c r="H105" s="5">
-        <v>0</v>
-      </c>
-      <c r="I105" s="5">
+        <v>243</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3405,15 +3684,18 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>253</v>
-      </c>
-      <c r="H106" s="5">
-        <v>0</v>
-      </c>
-      <c r="I106" s="5">
+        <v>245</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3423,15 +3705,18 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>246</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
-      </c>
-      <c r="H107" s="5">
-        <v>0</v>
-      </c>
-      <c r="I107" s="5">
+        <v>247</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3441,15 +3726,18 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>248</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>257</v>
-      </c>
-      <c r="H108" s="5">
-        <v>0</v>
-      </c>
-      <c r="I108" s="5">
+        <v>249</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3459,15 +3747,18 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>250</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
-      </c>
-      <c r="H109" s="5">
-        <v>0</v>
-      </c>
-      <c r="I109" s="5">
+        <v>251</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3477,15 +3768,18 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>252</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>261</v>
-      </c>
-      <c r="H110" s="5">
-        <v>0</v>
-      </c>
-      <c r="I110" s="5">
+        <v>253</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3495,15 +3789,18 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>254</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="5">
-        <v>0</v>
-      </c>
-      <c r="I111" s="5">
+        <v>15</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3513,15 +3810,18 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>263</v>
+        <v>255</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
-      </c>
-      <c r="H112" s="5">
-        <v>0</v>
-      </c>
-      <c r="I112" s="5">
+        <v>256</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3531,15 +3831,18 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>266</v>
-      </c>
-      <c r="H113" s="5">
-        <v>0</v>
-      </c>
-      <c r="I113" s="5">
+        <v>258</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3549,15 +3852,18 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
-      </c>
-      <c r="H114" s="5">
-        <v>0</v>
-      </c>
-      <c r="I114" s="5">
+        <v>262</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3567,15 +3873,18 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>263</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>272</v>
-      </c>
-      <c r="H115" s="5">
-        <v>0</v>
-      </c>
-      <c r="I115" s="5">
+        <v>264</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3585,15 +3894,18 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>274</v>
-      </c>
-      <c r="H116" s="5">
-        <v>0</v>
-      </c>
-      <c r="I116" s="5">
+        <v>266</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3603,15 +3915,18 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>267</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
-      </c>
-      <c r="H117" s="5">
-        <v>0</v>
-      </c>
-      <c r="I117" s="5">
+        <v>268</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3621,15 +3936,18 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>269</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>278</v>
-      </c>
-      <c r="H118" s="5">
-        <v>0</v>
-      </c>
-      <c r="I118" s="5">
+        <v>270</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3639,15 +3957,18 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
-      </c>
-      <c r="H119" s="5">
-        <v>0</v>
-      </c>
-      <c r="I119" s="5">
+        <v>59</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3657,15 +3978,18 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>281</v>
-      </c>
-      <c r="H120" s="5">
-        <v>0</v>
-      </c>
-      <c r="I120" s="5">
+        <v>273</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3675,15 +3999,18 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>282</v>
+        <v>274</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>283</v>
-      </c>
-      <c r="H121" s="5">
-        <v>0</v>
-      </c>
-      <c r="I121" s="5">
+        <v>275</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3693,15 +4020,18 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>285</v>
-      </c>
-      <c r="H122" s="5">
-        <v>0</v>
-      </c>
-      <c r="I122" s="5">
+        <v>277</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3711,15 +4041,18 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>286</v>
+        <v>278</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>287</v>
-      </c>
-      <c r="H123" s="5">
-        <v>0</v>
-      </c>
-      <c r="I123" s="5">
+        <v>279</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3729,15 +4062,18 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>280</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>289</v>
-      </c>
-      <c r="H124" s="5">
-        <v>0</v>
-      </c>
-      <c r="I124" s="5">
+        <v>281</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3747,15 +4083,18 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
-      </c>
-      <c r="H125" s="5">
-        <v>0</v>
-      </c>
-      <c r="I125" s="5">
+        <v>283</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3765,15 +4104,18 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>292</v>
+        <v>284</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>293</v>
-      </c>
-      <c r="H126" s="5">
-        <v>0</v>
-      </c>
-      <c r="I126" s="5">
+        <v>285</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3783,15 +4125,18 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>295</v>
-      </c>
-      <c r="H127" s="5">
-        <v>0</v>
-      </c>
-      <c r="I127" s="5">
+        <v>287</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3801,15 +4146,18 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>297</v>
-      </c>
-      <c r="H128" s="5">
-        <v>0</v>
-      </c>
-      <c r="I128" s="5">
+        <v>289</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3819,15 +4167,18 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>298</v>
+        <v>290</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>299</v>
-      </c>
-      <c r="H129" s="5">
-        <v>0</v>
-      </c>
-      <c r="I129" s="5">
+        <v>291</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3837,15 +4188,18 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>300</v>
+        <v>292</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>301</v>
-      </c>
-      <c r="H130" s="5">
-        <v>0</v>
-      </c>
-      <c r="I130" s="5">
+        <v>293</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3855,15 +4209,18 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>302</v>
+        <v>294</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>303</v>
-      </c>
-      <c r="H131" s="5">
-        <v>0</v>
-      </c>
-      <c r="I131" s="5">
+        <v>295</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I131" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3873,15 +4230,18 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>304</v>
+        <v>296</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>305</v>
-      </c>
-      <c r="H132" s="5">
-        <v>0</v>
-      </c>
-      <c r="I132" s="5">
+        <v>297</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3891,15 +4251,18 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>306</v>
+        <v>298</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>307</v>
-      </c>
-      <c r="H133" s="5">
-        <v>0</v>
-      </c>
-      <c r="I133" s="5">
+        <v>299</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0</v>
+      </c>
+      <c r="I133" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3909,15 +4272,18 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>300</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>309</v>
-      </c>
-      <c r="H134" s="5">
-        <v>0</v>
-      </c>
-      <c r="I134" s="5">
+        <v>322</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+      <c r="I134" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3927,15 +4293,18 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>310</v>
+        <v>301</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>311</v>
-      </c>
-      <c r="H135" s="5">
-        <v>0</v>
-      </c>
-      <c r="I135" s="5">
+        <v>302</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I135" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3945,15 +4314,18 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>313</v>
-      </c>
-      <c r="H136" s="5">
-        <v>0</v>
-      </c>
-      <c r="I136" s="5">
+        <v>304</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3963,15 +4335,18 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>314</v>
+        <v>305</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>315</v>
-      </c>
-      <c r="H137" s="5">
-        <v>0</v>
-      </c>
-      <c r="I137" s="5">
+        <v>306</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I137" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3981,15 +4356,18 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>307</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>317</v>
-      </c>
-      <c r="H138" s="5">
-        <v>0</v>
-      </c>
-      <c r="I138" s="5">
+        <v>308</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+      <c r="I138" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3999,15 +4377,18 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>319</v>
-      </c>
-      <c r="H139" s="5">
-        <v>0</v>
-      </c>
-      <c r="I139" s="5">
+        <v>310</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+      <c r="I139" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4017,15 +4398,18 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>321</v>
+        <v>312</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>320</v>
-      </c>
-      <c r="H140" s="5">
-        <v>0</v>
-      </c>
-      <c r="I140" s="5">
+        <v>311</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0</v>
+      </c>
+      <c r="I140" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4035,15 +4419,18 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>322</v>
+        <v>313</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>323</v>
-      </c>
-      <c r="H141" s="5">
-        <v>0</v>
-      </c>
-      <c r="I141" s="5">
+        <v>314</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0</v>
+      </c>
+      <c r="I141" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4053,28 +4440,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>315</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>325</v>
-      </c>
-      <c r="H142" s="5">
-        <v>0</v>
-      </c>
-      <c r="I142" s="5">
+        <v>316</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0</v>
+      </c>
+      <c r="I142" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8330EC1C-1AE0-49DF-846B-C3B5791148A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F28ED-2C63-4497-B303-6A9D6C8FAA8B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4086,44 +4477,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95493C9D-0E4C-4FD1-A8B2-6342C38C8927}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD944022-EDFB-46C1-A478-115EC7D2E4F8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F28ED-2C63-4497-B303-6A9D6C8FAA8B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCE9F91-7000-4427-BF89-D2C3F5AAC5FD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4137,11 +4490,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8C59F0-71E9-4DEE-9B9D-D1515E81AA68}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2299A0-5114-4F65-A361-E9FAF5DF4C64}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -4166,200 +4531,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4371,7 +4736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0192FB-3EE7-488C-9BF6-061BFBB97EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAD5015-F6C1-4424-A91B-0AC1D914E2FA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4383,7 +4748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAD5015-F6C1-4424-A91B-0AC1D914E2FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F1B4A-846F-479C-9BD8-0EEB70BFF32D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4395,7 +4760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F1B4A-846F-479C-9BD8-0EEB70BFF32D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A820-87BD-4008-8AA6-349FB5F43B06}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4407,7 +4772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417A820-87BD-4008-8AA6-349FB5F43B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC4FB1A-86C5-4AE4-BE09-5513DEB2DA9D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4419,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B681DAA-FD6F-4964-A2C5-1157C5BE0F85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D3F2A4-83DE-41D5-9AB0-6BE39D3E6738}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4431,10 +4796,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC4FB1A-86C5-4AE4-BE09-5513DEB2DA9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95493C9D-0E4C-4FD1-A8B2-6342C38C8927}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -4443,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D3F2A4-83DE-41D5-9AB0-6BE39D3E6738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD944022-EDFB-46C1-A478-115EC7D2E4F8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
